--- a/Personal/xiemin/周计划2016.xlsx
+++ b/Personal/xiemin/周计划2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="2016-2-22" sheetId="10" r:id="rId7"/>
     <sheet name="2016-2-29" sheetId="11" r:id="rId8"/>
     <sheet name="2016-3-1" sheetId="12" r:id="rId9"/>
+    <sheet name="2016-3-7" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2167,82 +2168,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉P4080的串口，FLASH，网口等接口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-      2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>熟悉VxWorks6.9操作系统、uboot及驱动
-     3.熟悉VxWorks6.9应用开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -2425,6 +2350,142 @@
   </si>
   <si>
     <t>1.近期OOC项目需求整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉P4080的串口，FLASH，网口等接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>熟悉VxWorks6.9操作系统、uboot及驱动
+     3.熟悉VxWorks6.9应用开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR6018A:
+       1. 熟悉MC9S12XEQ 16位单片机外设及接口
+       2. 项目业务层需求：FPGA代码在线更新；
+                          RS422-CAN协议转换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GR506:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      1.获取H.264网络视频串流 (win32 api或Vlclib api)
+      2.校时:win32下SNTP客户端实现</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GR6018A 项目评审
+2.搜集项目需求单片机的资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2432,7 +2493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2660,8 +2721,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2692,6 +2762,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2705,7 +2781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2817,11 +2893,31 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3430,6 +3526,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="38" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="38" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25">
+      <c r="A3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="57">
+      <c r="A4" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="71.25">
+      <c r="A5" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57">
+      <c r="A6" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="69" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75">
+      <c r="A8" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75">
+      <c r="A9" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
@@ -3753,7 +3964,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3920,7 +4131,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4082,7 +4293,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4188,7 +4399,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4302,7 +4513,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4402,7 +4613,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4410,13 +4621,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -4429,7 +4640,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4456,56 +4667,67 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="71.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25">
+      <c r="A3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" ht="57">
+      <c r="A4" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="71.25">
+      <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="57">
-      <c r="A3" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="71.25">
-      <c r="A4" s="27" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="57">
+      <c r="A6" s="34" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57">
-      <c r="A5" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="42.75">
-      <c r="A6" s="35" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="42.75">
       <c r="A7" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75">
+      <c r="A8" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75">
+      <c r="A9" s="39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
-      <c r="A8" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25"/>
-    <row r="10" spans="1:9" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A8 A1:H1 B2:H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Personal/xiemin/周计划2016.xlsx
+++ b/Personal/xiemin/周计划2016.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2486,6 +2486,10 @@
   <si>
     <t>1.GR6018A 项目评审
 2.搜集项目需求单片机的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党校保密培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2907,17 +2911,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3531,10 +3525,10 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -3547,7 +3541,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1" ht="14.25">
+    <row r="1" spans="1:9" s="40" customFormat="1">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3583,7 +3577,9 @@
       <c r="D2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
@@ -3634,7 +3630,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3964,7 +3960,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4131,7 +4127,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4293,7 +4289,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4399,7 +4395,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4513,7 +4509,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4613,7 +4609,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4727,7 +4723,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Personal/xiemin/周计划2016.xlsx
+++ b/Personal/xiemin/周计划2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="2016-2-29" sheetId="11" r:id="rId8"/>
     <sheet name="2016-3-1" sheetId="12" r:id="rId9"/>
     <sheet name="2016-3-7" sheetId="13" r:id="rId10"/>
+    <sheet name="2016-3-14" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2490,6 +2491,49 @@
   </si>
   <si>
     <t>党校保密培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.MC9S12单片机时钟及其初始化
+2.TQE9 ARM-Linux开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.GR6505测试平台搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. GIT&amp;SVN冲突解决方案制定 
+3. 进程概念：《operation system concept 》、《linux内核情景分析》
+5. Word 页眉、页脚、页码使用学习
+6. 存储器（ROM、RAM）数字电路原理学习
+7. 为IMX6Q重新编写I2C-RTC（或其他）驱动
+8. 掌握MC9S12单片机时钟初始化（寄存器配置）
+9. GR6505 LCBUS调试 【****】
+10.GR6406 下周调试【***】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习STM32F4XX FSMC控制器原理及其寄存器配置
+2.GR6505上位机、MCU软件需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2735,7 +2779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2772,6 +2816,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2785,7 +2841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2906,6 +2962,19 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3524,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3632,6 +3701,63 @@
   <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="44.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="234.75" customHeight="1">
+      <c r="B1" s="48"/>
+      <c r="C1" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="145.5" customHeight="1">
+      <c r="A3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4619,8 +4745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Personal/xiemin/周计划2016.xlsx
+++ b/Personal/xiemin/周计划2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2534,6 +2534,10 @@
   <si>
     <t>1.学习STM32F4XX FSMC控制器原理及其寄存器配置
 2.GR6505上位机、MCU软件需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.调GR6505 MCU外部中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3711,7 +3715,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.125" defaultRowHeight="13.5"/>
@@ -3754,6 +3758,9 @@
       </c>
       <c r="C3" s="30" t="s">
         <v>89</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/xiemin/周计划2016.xlsx
+++ b/Personal/xiemin/周计划2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="655" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="2016-1-4" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="2016-3-1" sheetId="12" r:id="rId9"/>
     <sheet name="2016-3-7" sheetId="13" r:id="rId10"/>
     <sheet name="2016-3-14" sheetId="14" r:id="rId11"/>
+    <sheet name="22周" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="94">
   <si>
     <t>星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2540,12 +2541,32 @@
     <t>1.调GR6505 MCU外部中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.花时间想java语法基础：关键字、常（变）量、运算符（4天）
+2.韦东山驱动教程：学前班第1课之怎么看原理图（两个星期）
+----------------------------------------
+1.GR6323 光模块测试
+2.GR6505 编写测试细则
+3.GR6018A MCU软件通测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.测试GR6018A MCU软件能否在公司板卡上正常运行；
+2.java环境搭建
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.java语法基础之关键词、注释初识
+2.WDS驱动教程：GPIO和门电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2782,6 +2803,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2845,7 +2881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2980,11 +3016,45 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3068,72 +3138,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF3300"/>
       <color rgb="FF4CAF01"/>
@@ -3151,14 +3155,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3226,6 +3230,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3261,6 +3282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3443,7 +3481,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="49.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
@@ -3456,7 +3494,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="11">
         <v>42373.653437499997</v>
       </c>
@@ -3482,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81">
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3506,7 +3544,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="67.5">
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3556,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="162">
+    <row r="4" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -3530,7 +3568,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="54">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3542,7 +3580,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3554,7 +3592,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -3566,7 +3604,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -3578,12 +3616,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3597,11 +3635,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -3614,7 +3652,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3641,7 +3679,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25">
+    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
         <v>81</v>
       </c>
@@ -3658,7 +3696,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>80</v>
       </c>
@@ -3670,32 +3708,32 @@
       <c r="G3" s="32"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="57">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57">
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="69" customHeight="1">
+    <row r="7" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42.75">
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>76</v>
       </c>
@@ -3703,7 +3741,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3714,17 +3752,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="44.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="47" customFormat="1" ht="234.75" customHeight="1">
+    <row r="1" spans="1:5" s="47" customFormat="1" ht="234.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="48"/>
       <c r="C1" s="51" t="s">
         <v>88</v>
@@ -3732,7 +3770,7 @@
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
     </row>
-    <row r="2" spans="1:5" s="50" customFormat="1" ht="33" customHeight="1">
+    <row r="2" spans="1:5" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="50" t="s">
         <v>85</v>
       </c>
@@ -3749,7 +3787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" ht="145.5" customHeight="1">
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
         <v>86</v>
       </c>
@@ -3765,6 +3803,231 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="59.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="38" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="38" customWidth="1"/>
+    <col min="5" max="5" width="22.875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="25.75" style="38" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+    </row>
+    <row r="5" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="58"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="58"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="58"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+    </row>
+    <row r="17" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="58"/>
+    </row>
+    <row r="18" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="58"/>
+    </row>
+    <row r="19" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="58"/>
+    </row>
+    <row r="20" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58"/>
+    </row>
+    <row r="21" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58"/>
+    </row>
+    <row r="22" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="58"/>
+    </row>
+    <row r="23" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="58"/>
+    </row>
+    <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="58"/>
+    </row>
+    <row r="25" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="58"/>
+    </row>
+    <row r="26" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="58"/>
+    </row>
+    <row r="27" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="58"/>
+    </row>
+    <row r="28" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="58"/>
+    </row>
+    <row r="29" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="58"/>
+    </row>
+    <row r="30" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="58"/>
+    </row>
+    <row r="31" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="58"/>
+    </row>
+    <row r="32" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="58"/>
+    </row>
+    <row r="33" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="58"/>
+    </row>
+    <row r="34" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="58"/>
+    </row>
+    <row r="35" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="58"/>
+    </row>
+    <row r="36" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="58"/>
+    </row>
+    <row r="37" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:H1 F2:H2 A2 B3:H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3778,7 +4041,7 @@
       <selection activeCell="B12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.125" style="1" customWidth="1"/>
@@ -3791,7 +4054,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
@@ -3818,7 +4081,7 @@
       </c>
       <c r="I1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="132.75" customHeight="1">
+    <row r="2" spans="1:9" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -3842,7 +4105,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -3854,7 +4117,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="216">
+    <row r="4" spans="1:9" ht="216" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>36</v>
       </c>
@@ -3866,7 +4129,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -3878,7 +4141,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="40.5">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
@@ -3890,7 +4153,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
@@ -3902,7 +4165,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -3914,12 +4177,12 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="40.5">
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -3939,7 +4202,7 @@
       <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.625" style="38" bestFit="1" customWidth="1"/>
@@ -3950,7 +4213,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -3977,7 +4240,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="142.5">
+    <row r="2" spans="1:9" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4266,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -4015,7 +4278,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -4027,7 +4290,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -4039,7 +4302,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -4051,7 +4314,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -4063,7 +4326,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -4075,17 +4338,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -4093,7 +4356,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4108,7 +4371,7 @@
       <selection activeCell="E4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -4119,7 +4382,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4146,7 +4409,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -4170,7 +4433,7 @@
       </c>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -4182,7 +4445,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -4194,7 +4457,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -4206,7 +4469,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -4218,7 +4481,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -4230,7 +4493,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -4242,17 +4505,17 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
@@ -4260,7 +4523,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4275,7 +4538,7 @@
       <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="38" customWidth="1"/>
@@ -4286,7 +4549,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4313,7 +4576,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="99.75">
+    <row r="2" spans="1:9" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
@@ -4327,7 +4590,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="1:9" ht="57">
+    <row r="3" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
@@ -4339,7 +4602,7 @@
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="228">
+    <row r="4" spans="1:9" ht="228" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>39</v>
       </c>
@@ -4351,7 +4614,7 @@
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:9" ht="57">
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
         <v>40</v>
       </c>
@@ -4363,7 +4626,7 @@
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
         <v>33</v>
       </c>
@@ -4375,7 +4638,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
@@ -4387,7 +4650,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>34</v>
       </c>
@@ -4399,22 +4662,22 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="42.75">
+    <row r="10" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="57">
+    <row r="12" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
@@ -4422,7 +4685,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:H11">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4437,7 +4700,7 @@
       <selection activeCell="J6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="38" bestFit="1" customWidth="1"/>
@@ -4448,7 +4711,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4475,7 +4738,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -4495,32 +4758,32 @@
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25">
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>57</v>
       </c>
@@ -4528,7 +4791,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4543,7 +4806,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -4556,7 +4819,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4583,7 +4846,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="114">
+    <row r="2" spans="1:9" ht="114" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -4609,32 +4872,32 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25">
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
@@ -4642,7 +4905,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4657,7 +4920,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -4670,7 +4933,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4697,7 +4960,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" ht="57">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>61</v>
       </c>
@@ -4709,32 +4972,32 @@
       <c r="G2" s="42"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75">
+    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="85.5">
+    <row r="5" spans="1:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="242.25">
+    <row r="6" spans="1:9" ht="242.25" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57">
+    <row r="7" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>33</v>
       </c>
@@ -4742,7 +5005,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:H5 A1:H2 A4:A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4756,7 +5019,7 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="55.625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="38" customWidth="1"/>
@@ -4769,7 +5032,7 @@
     <col min="9" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="40" customFormat="1">
+    <row r="1" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
@@ -4796,7 +5059,7 @@
       </c>
       <c r="I1" s="26"/>
     </row>
-    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25">
+    <row r="2" spans="1:9" s="44" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="s">
         <v>81</v>
       </c>
@@ -4809,7 +5072,7 @@
       <c r="H2" s="43"/>
       <c r="I2" s="43"/>
     </row>
-    <row r="3" spans="1:9" ht="71.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>80</v>
       </c>
@@ -4823,32 +5086,32 @@
       <c r="G3" s="32"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="57">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="71.25">
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="57">
+    <row r="6" spans="1:9" ht="57" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="42.75">
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="42.75">
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42.75">
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>76</v>
       </c>
@@ -4856,7 +5119,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9 A1:H2 B3:H6">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
